--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H2">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I2">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J2">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>984.0929130440451</v>
+        <v>2217.200703727005</v>
       </c>
       <c r="R2">
-        <v>3936.37165217618</v>
+        <v>8868.80281490802</v>
       </c>
       <c r="S2">
-        <v>0.004337821143644548</v>
+        <v>0.00801423794630535</v>
       </c>
       <c r="T2">
-        <v>0.002149940219357621</v>
+        <v>0.004085329299168844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H3">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I3">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J3">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
-        <v>3824.620094058839</v>
+        <v>6277.922281818957</v>
       </c>
       <c r="R3">
-        <v>22947.72056435304</v>
+        <v>37667.53369091375</v>
       </c>
       <c r="S3">
-        <v>0.01685869056723274</v>
+        <v>0.02269202011813188</v>
       </c>
       <c r="T3">
-        <v>0.01253342716168773</v>
+        <v>0.01735118958291051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H4">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I4">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J4">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>5263.948192457591</v>
+        <v>6415.891644249346</v>
       </c>
       <c r="R4">
-        <v>31583.68915474555</v>
+        <v>38495.34986549609</v>
       </c>
       <c r="S4">
-        <v>0.02320316045937225</v>
+        <v>0.02319072070845666</v>
       </c>
       <c r="T4">
-        <v>0.01725016070368689</v>
+        <v>0.01773251519617843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H5">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I5">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J5">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>1687.831695391834</v>
+        <v>3423.729671761635</v>
       </c>
       <c r="R5">
-        <v>6751.326781567336</v>
+        <v>13694.91868704654</v>
       </c>
       <c r="S5">
-        <v>0.007439858491142729</v>
+        <v>0.01237532723456237</v>
       </c>
       <c r="T5">
-        <v>0.003687392925333519</v>
+        <v>0.006308433475133744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H6">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I6">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J6">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>769.842272528276</v>
+        <v>3390.888224127786</v>
       </c>
       <c r="R6">
-        <v>4619.053635169656</v>
+        <v>20345.32934476672</v>
       </c>
       <c r="S6">
-        <v>0.00339341747387938</v>
+        <v>0.01225661936323779</v>
       </c>
       <c r="T6">
-        <v>0.00252280273894646</v>
+        <v>0.009371881617854768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.652523</v>
+        <v>107.7653275</v>
       </c>
       <c r="H7">
-        <v>131.305046</v>
+        <v>215.530655</v>
       </c>
       <c r="I7">
-        <v>0.07819491960606291</v>
+        <v>0.1076850798785215</v>
       </c>
       <c r="J7">
-        <v>0.05521457487889055</v>
+        <v>0.07714326402502852</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>5209.231235140307</v>
+        <v>8066.274887998605</v>
       </c>
       <c r="R7">
-        <v>31255.38741084184</v>
+        <v>48397.64932799163</v>
       </c>
       <c r="S7">
-        <v>0.02296197147079126</v>
+        <v>0.02915615450782747</v>
       </c>
       <c r="T7">
-        <v>0.01707085112987832</v>
+        <v>0.02229391485378222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>830.932037</v>
       </c>
       <c r="I8">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J8">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>4151.728379796119</v>
+        <v>5698.626635998218</v>
       </c>
       <c r="R8">
-        <v>24910.37027877671</v>
+        <v>34191.75981598931</v>
       </c>
       <c r="S8">
-        <v>0.01830056380839182</v>
+        <v>0.02059811263422119</v>
       </c>
       <c r="T8">
-        <v>0.01360537359622154</v>
+        <v>0.01575010754908229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>830.932037</v>
       </c>
       <c r="I9">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J9">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
         <v>16135.45182164308</v>
@@ -1013,10 +1013,10 @@
         <v>145219.0663947877</v>
       </c>
       <c r="S9">
-        <v>0.07112408101555816</v>
+        <v>0.05832279867691923</v>
       </c>
       <c r="T9">
-        <v>0.07931474440100587</v>
+        <v>0.06689377575779654</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>830.932037</v>
       </c>
       <c r="I10">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J10">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>22207.74360908798</v>
+        <v>16490.05926984382</v>
       </c>
       <c r="R10">
-        <v>199869.6924817918</v>
+        <v>148410.5334285944</v>
       </c>
       <c r="S10">
-        <v>0.09789037041447256</v>
+        <v>0.05960455384803916</v>
       </c>
       <c r="T10">
-        <v>0.1091634450369249</v>
+        <v>0.0683638945610498</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>830.932037</v>
       </c>
       <c r="I11">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J11">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>7120.688155757549</v>
+        <v>8799.635084528887</v>
       </c>
       <c r="R11">
-        <v>42724.1289345453</v>
+        <v>52797.81050717332</v>
       </c>
       <c r="S11">
-        <v>0.03138755622555929</v>
+        <v>0.03180693984515099</v>
       </c>
       <c r="T11">
-        <v>0.0233347689826541</v>
+        <v>0.02432080706928614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>830.932037</v>
       </c>
       <c r="I12">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J12">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>3247.839679015481</v>
+        <v>8715.226330762753</v>
       </c>
       <c r="R12">
-        <v>29230.55711113933</v>
+        <v>78437.03697686477</v>
       </c>
       <c r="S12">
-        <v>0.01431627790837522</v>
+        <v>0.03150183808494688</v>
       </c>
       <c r="T12">
-        <v>0.01596494333372353</v>
+        <v>0.03613127182881209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>830.932037</v>
       </c>
       <c r="I13">
-        <v>0.3298916825649746</v>
+        <v>0.2767710940483697</v>
       </c>
       <c r="J13">
-        <v>0.3494120033757541</v>
+        <v>0.2974092456460348</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>21976.90164128276</v>
+        <v>20731.85745104837</v>
       </c>
       <c r="R13">
-        <v>197792.1147715448</v>
+        <v>186586.7170594353</v>
       </c>
       <c r="S13">
-        <v>0.09687283319261758</v>
+        <v>0.0749368509590923</v>
       </c>
       <c r="T13">
-        <v>0.1080287280252242</v>
+        <v>0.08594938888000789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H14">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I14">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J14">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>3286.080744844194</v>
+        <v>4337.628289044738</v>
       </c>
       <c r="R14">
-        <v>19716.48446906516</v>
+        <v>26025.76973426843</v>
       </c>
       <c r="S14">
-        <v>0.01448484217878966</v>
+        <v>0.01567868221067915</v>
       </c>
       <c r="T14">
-        <v>0.01076861299947342</v>
+        <v>0.01198852222197379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H15">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I15">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J15">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>12771.16243887475</v>
+        <v>12281.835036525</v>
       </c>
       <c r="R15">
-        <v>114940.4619498727</v>
+        <v>110536.5153287249</v>
       </c>
       <c r="S15">
-        <v>0.05629449996231245</v>
+        <v>0.04439361228531361</v>
       </c>
       <c r="T15">
-        <v>0.06277738582965375</v>
+        <v>0.05091758990755613</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H16">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I16">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J16">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>17577.36344588236</v>
+        <v>12551.75187738362</v>
       </c>
       <c r="R16">
-        <v>158196.2710129412</v>
+        <v>112965.7668964526</v>
       </c>
       <c r="S16">
-        <v>0.07747993893099064</v>
+        <v>0.0453692469153766</v>
       </c>
       <c r="T16">
-        <v>0.08640254418433614</v>
+        <v>0.0520366014372755</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H17">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I17">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J17">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>5636.003634665539</v>
+        <v>6698.025421564927</v>
       </c>
       <c r="R17">
-        <v>33816.02180799323</v>
+        <v>40188.15252938956</v>
       </c>
       <c r="S17">
-        <v>0.02484315800678414</v>
+        <v>0.02421051437003011</v>
       </c>
       <c r="T17">
-        <v>0.01846940069886093</v>
+        <v>0.01851228857313188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H18">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I18">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J18">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>2570.655509038341</v>
+        <v>6633.775941547035</v>
       </c>
       <c r="R18">
-        <v>23135.89958134507</v>
+        <v>59703.9834739233</v>
       </c>
       <c r="S18">
-        <v>0.01133129166192234</v>
+        <v>0.02397827981412173</v>
       </c>
       <c r="T18">
-        <v>0.01263620547451465</v>
+        <v>0.0275020696765419</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>219.2267506666667</v>
+        <v>210.8270723333333</v>
       </c>
       <c r="H19">
-        <v>657.680252</v>
+        <v>632.481217</v>
       </c>
       <c r="I19">
-        <v>0.2611082919673688</v>
+        <v>0.2106700796206445</v>
       </c>
       <c r="J19">
-        <v>0.2765585682093406</v>
+        <v>0.2263792383218172</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>17394.65271046958</v>
+        <v>15780.4848620966</v>
       </c>
       <c r="R19">
-        <v>156551.8743942262</v>
+        <v>142024.3637588694</v>
       </c>
       <c r="S19">
-        <v>0.0766745612265696</v>
+        <v>0.05703974402512334</v>
       </c>
       <c r="T19">
-        <v>0.08550441902250171</v>
+        <v>0.06542216650533798</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H20">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I20">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J20">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>1125.15657382632</v>
+        <v>2069.14367526246</v>
       </c>
       <c r="R20">
-        <v>4500.626295305281</v>
+        <v>8276.57470104984</v>
       </c>
       <c r="S20">
-        <v>0.004959621099960124</v>
+        <v>0.007479074731832609</v>
       </c>
       <c r="T20">
-        <v>0.00245812091427546</v>
+        <v>0.003812525075664251</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H21">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I21">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J21">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>4372.855839300145</v>
+        <v>5858.70424873109</v>
       </c>
       <c r="R21">
-        <v>26237.13503580087</v>
+        <v>35152.22549238654</v>
       </c>
       <c r="S21">
-        <v>0.01927528007406422</v>
+        <v>0.02117672515051764</v>
       </c>
       <c r="T21">
-        <v>0.01433001678665188</v>
+        <v>0.0161925368882526</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H22">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I22">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J22">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>6018.502759769137</v>
+        <v>5987.460492210969</v>
       </c>
       <c r="R22">
-        <v>36111.01655861482</v>
+        <v>35924.76295326582</v>
       </c>
       <c r="S22">
-        <v>0.02652919066722427</v>
+        <v>0.02164212423260598</v>
       </c>
       <c r="T22">
-        <v>0.01972286504459876</v>
+        <v>0.0165483988900924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H23">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I23">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J23">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>1929.771978245664</v>
+        <v>3195.10479327642</v>
       </c>
       <c r="R23">
-        <v>7719.087912982657</v>
+        <v>12780.41917310568</v>
       </c>
       <c r="S23">
-        <v>0.008506316404365923</v>
+        <v>0.01154894549404347</v>
       </c>
       <c r="T23">
-        <v>0.004215958000740101</v>
+        <v>0.005887178009616101</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H24">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I24">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J24">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>880.194422968896</v>
+        <v>3164.456384431964</v>
       </c>
       <c r="R24">
-        <v>5281.166537813377</v>
+        <v>18986.73830659178</v>
       </c>
       <c r="S24">
-        <v>0.003879842978100587</v>
+        <v>0.01143816452561682</v>
       </c>
       <c r="T24">
-        <v>0.002884430980619826</v>
+        <v>0.00874605963379684</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.06340800000001</v>
+        <v>100.56913</v>
       </c>
       <c r="H25">
-        <v>150.126816</v>
+        <v>201.13826</v>
       </c>
       <c r="I25">
-        <v>0.08940367994566027</v>
+        <v>0.1004942410383656</v>
       </c>
       <c r="J25">
-        <v>0.06312924427414179</v>
+        <v>0.07199190248233985</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>5955.942463470609</v>
+        <v>7527.636825739402</v>
       </c>
       <c r="R25">
-        <v>35735.65478082366</v>
+        <v>45165.82095443641</v>
       </c>
       <c r="S25">
-        <v>0.02625342872194515</v>
+        <v>0.02720920690374914</v>
       </c>
       <c r="T25">
-        <v>0.01951785254725577</v>
+        <v>0.02080520398491765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H26">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I26">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J26">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N26">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O26">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P26">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q26">
-        <v>996.2963653933151</v>
+        <v>2110.15694580153</v>
       </c>
       <c r="R26">
-        <v>5977.77819235989</v>
+        <v>12660.94167480918</v>
       </c>
       <c r="S26">
-        <v>0.004391613212385676</v>
+        <v>0.007627320268875688</v>
       </c>
       <c r="T26">
-        <v>0.003264901511789013</v>
+        <v>0.005832141841311446</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H27">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I27">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J27">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P27">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q27">
-        <v>3872.048104618873</v>
+        <v>5974.831816494662</v>
       </c>
       <c r="R27">
-        <v>34848.43294156986</v>
+        <v>53773.48634845196</v>
       </c>
       <c r="S27">
-        <v>0.0170677503260028</v>
+        <v>0.0215964769387155</v>
       </c>
       <c r="T27">
-        <v>0.01903327586490676</v>
+        <v>0.02477024282561693</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H28">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I28">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J28">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N28">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O28">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P28">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q28">
-        <v>5329.224895586137</v>
+        <v>6106.140185624668</v>
       </c>
       <c r="R28">
-        <v>47963.02406027522</v>
+        <v>54955.26167062202</v>
       </c>
       <c r="S28">
-        <v>0.02349089615918796</v>
+        <v>0.02207110087004487</v>
       </c>
       <c r="T28">
-        <v>0.02619611245604706</v>
+        <v>0.02531461633909504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H29">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I29">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J29">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N29">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O29">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P29">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q29">
-        <v>1708.762009384838</v>
+        <v>3258.43616018631</v>
       </c>
       <c r="R29">
-        <v>10252.57205630903</v>
+        <v>19550.61696111786</v>
       </c>
       <c r="S29">
-        <v>0.007532118030235567</v>
+        <v>0.01177786146138348</v>
       </c>
       <c r="T29">
-        <v>0.005599678832036842</v>
+        <v>0.009005804949662813</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H30">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I30">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J30">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N30">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O30">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P30">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q30">
-        <v>779.388864485932</v>
+        <v>3227.180257769243</v>
       </c>
       <c r="R30">
-        <v>7014.499780373388</v>
+        <v>29044.62231992319</v>
       </c>
       <c r="S30">
-        <v>0.003435498265128624</v>
+        <v>0.01166488466195535</v>
       </c>
       <c r="T30">
-        <v>0.003831130931999959</v>
+        <v>0.01337912782855192</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>66.466661</v>
+        <v>102.5625483333333</v>
       </c>
       <c r="H31">
-        <v>199.399983</v>
+        <v>307.687645</v>
       </c>
       <c r="I31">
-        <v>0.07916459224847211</v>
+        <v>0.1024861749695859</v>
       </c>
       <c r="J31">
-        <v>0.08384891234266047</v>
+        <v>0.1101283213539821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N31">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O31">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P31">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q31">
-        <v>5273.829409064479</v>
+        <v>7676.844930205496</v>
       </c>
       <c r="R31">
-        <v>47464.4646815803</v>
+        <v>69091.60437184946</v>
       </c>
       <c r="S31">
-        <v>0.02324671625553148</v>
+        <v>0.02774853076861099</v>
       </c>
       <c r="T31">
-        <v>0.02592381274588083</v>
+        <v>0.03182638756974395</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H32">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I32">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J32">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N32">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O32">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P32">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q32">
-        <v>2041.770987823549</v>
+        <v>4156.917883557672</v>
       </c>
       <c r="R32">
-        <v>12250.62592694129</v>
+        <v>24941.50730134604</v>
       </c>
       <c r="S32">
-        <v>0.009000001162557503</v>
+        <v>0.0150254909201874</v>
       </c>
       <c r="T32">
-        <v>0.006690962063522529</v>
+        <v>0.01148906708945466</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H33">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I33">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J33">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>174.766479</v>
       </c>
       <c r="O33">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P33">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q33">
-        <v>7935.224656116187</v>
+        <v>11770.16016683152</v>
       </c>
       <c r="R33">
-        <v>71417.02190504568</v>
+        <v>105931.4415014837</v>
       </c>
       <c r="S33">
-        <v>0.03497798311177323</v>
+        <v>0.04254412515950888</v>
       </c>
       <c r="T33">
-        <v>0.03900605463803646</v>
+        <v>0.04879630663811189</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H34">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I34">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J34">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N34">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O34">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P34">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q34">
-        <v>10921.50604714809</v>
+        <v>12028.83197272887</v>
       </c>
       <c r="R34">
-        <v>98293.5544243328</v>
+        <v>108259.4877545598</v>
       </c>
       <c r="S34">
-        <v>0.04814132814473423</v>
+        <v>0.04347911376878415</v>
       </c>
       <c r="T34">
-        <v>0.05368529311597433</v>
+        <v>0.04986869890638117</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H35">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I35">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J35">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N35">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O35">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P35">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q35">
-        <v>3501.870344051385</v>
+        <v>6418.978253565144</v>
       </c>
       <c r="R35">
-        <v>21011.22206430831</v>
+        <v>38513.86952139086</v>
       </c>
       <c r="S35">
-        <v>0.01543602948398433</v>
+        <v>0.02320187748892426</v>
       </c>
       <c r="T35">
-        <v>0.01147576381639101</v>
+        <v>0.01774104609876094</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H36">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I36">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J36">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N36">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O36">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P36">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q36">
-        <v>1597.249199149585</v>
+        <v>6357.405478145405</v>
       </c>
       <c r="R36">
-        <v>14375.24279234627</v>
+        <v>57216.64930330865</v>
       </c>
       <c r="S36">
-        <v>0.007040576408896758</v>
+        <v>0.02297931808219183</v>
       </c>
       <c r="T36">
-        <v>0.007851370595357786</v>
+        <v>0.02635630295062543</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>136.2141876666667</v>
+        <v>202.0437826666667</v>
       </c>
       <c r="H37">
-        <v>408.642563</v>
+        <v>606.131348</v>
       </c>
       <c r="I37">
-        <v>0.1622368336674611</v>
+        <v>0.2018933304445128</v>
       </c>
       <c r="J37">
-        <v>0.1718366969192124</v>
+        <v>0.2169480281707975</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N37">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O37">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P37">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q37">
-        <v>10807.98069348323</v>
+        <v>15123.05236023508</v>
       </c>
       <c r="R37">
-        <v>97271.82624134904</v>
+        <v>136107.4712421157</v>
       </c>
       <c r="S37">
-        <v>0.04764091535551508</v>
+        <v>0.05466340502491627</v>
       </c>
       <c r="T37">
-        <v>0.05312725268993032</v>
+        <v>0.06269660648746342</v>
       </c>
     </row>
   </sheetData>
